--- a/biology/Zoologie/Hypera/Hypera.xlsx
+++ b/biology/Zoologie/Hypera/Hypera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hypera est un genre d'insectes coléoptères de la famille des Curculionidae (charançons et espèces proches). Ce genre comprend notamment plusieurs espèces qui sont des ravageurs des cultures de légumineuses fourragères (luzernes, trèfles, etc.)[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hypera est un genre d'insectes coléoptères de la famille des Curculionidae (charançons et espèces proches). Ce genre comprend notamment plusieurs espèces qui sont des ravageurs des cultures de légumineuses fourragères (luzernes, trèfles, etc.).
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                  (30 août 2014)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                  (30 août 2014) :
 Hypera abrutiana
 Hypera acaciae
 Hypera acetosae
@@ -758,7 +772,7 @@
 Hypera villosula
 Hypera virescens
 Hypera visnagae
-Selon ITIS      (30 août 2014)[3] :
+Selon ITIS      (30 août 2014) :
 Hypera brunnipennis (Boheman, 1834)
 Hypera castor (LeConte, 1876)
 Hypera compta (Say, 1831)
